--- a/data/trans_orig/Q5402-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2888</v>
+        <v>3673</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13284</v>
+        <v>13316</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06502387863226043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02511960313460719</v>
+        <v>0.03193896162185063</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1155215210857364</v>
+        <v>0.1158051315691603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>8938</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4456</v>
+        <v>4340</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17731</v>
+        <v>16762</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05976999474301915</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02979987882235349</v>
+        <v>0.02902539899664627</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1185749525091269</v>
+        <v>0.1120971080722248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -786,19 +786,19 @@
         <v>16415</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9850</v>
+        <v>10041</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25303</v>
+        <v>25915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06205386187252624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03723720022562434</v>
+        <v>0.037960115803874</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09565658151326799</v>
+        <v>0.09796679112515191</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>13102</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7458</v>
+        <v>7789</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20612</v>
+        <v>21576</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1139413348454273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06485479419663236</v>
+        <v>0.06774027853197215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1792534415287638</v>
+        <v>0.1876313635080062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -836,19 +836,19 @@
         <v>9637</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4505</v>
+        <v>4322</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18506</v>
+        <v>16985</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06444516171961237</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03012532668482502</v>
+        <v>0.02890591658826064</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1237570594248506</v>
+        <v>0.1135832479551259</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -857,19 +857,19 @@
         <v>22739</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14287</v>
+        <v>14761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33146</v>
+        <v>32716</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.085961184003608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0540100011335853</v>
+        <v>0.05580037259761737</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1253040981119827</v>
+        <v>0.1236783164528618</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>94410</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86460</v>
+        <v>85059</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101825</v>
+        <v>101162</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8210347865223122</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7518997581376881</v>
+        <v>0.7397156758483874</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8855169445403747</v>
+        <v>0.8797522450594413</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>134</v>
@@ -907,19 +907,19 @@
         <v>130960</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>121811</v>
+        <v>120968</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>138286</v>
+        <v>138687</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8757848435373685</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8145966727386195</v>
+        <v>0.8089616976190772</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9247716093160154</v>
+        <v>0.9274545479354331</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>231</v>
@@ -928,19 +928,19 @@
         <v>225370</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>214367</v>
+        <v>212773</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>236679</v>
+        <v>235558</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8519849541238658</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8103890397813477</v>
+        <v>0.8043634279216875</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8947341230352361</v>
+        <v>0.8904975212974348</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>10798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5830</v>
+        <v>5818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18510</v>
+        <v>18586</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07401531941412504</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0399586737168036</v>
+        <v>0.03988096367601764</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1268803268587187</v>
+        <v>0.1273969490748406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1053,19 +1053,19 @@
         <v>8336</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3904</v>
+        <v>3795</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17199</v>
+        <v>16015</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04563129770524862</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0213687164897785</v>
+        <v>0.02077139673884138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09415017749076823</v>
+        <v>0.08766464890984982</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -1074,19 +1074,19 @@
         <v>19134</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11339</v>
+        <v>11460</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30013</v>
+        <v>29801</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05823418754855848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03451061792266875</v>
+        <v>0.03487986882089086</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09134375832033069</v>
+        <v>0.09069873526288005</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>12266</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6958</v>
+        <v>6796</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19151</v>
+        <v>19731</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08407610685497593</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04769119463901597</v>
+        <v>0.04658052156268962</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1312713107173968</v>
+        <v>0.1352482741082065</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -1124,19 +1124,19 @@
         <v>12119</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6180</v>
+        <v>5847</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20958</v>
+        <v>20244</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06633802231227025</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03382823124777162</v>
+        <v>0.03200798067824154</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1147242892682154</v>
+        <v>0.110815922453559</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -1145,19 +1145,19 @@
         <v>24384</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16093</v>
+        <v>16702</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>34206</v>
+        <v>35578</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07421397195097584</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04897867054421475</v>
+        <v>0.05083320157893207</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1041053886685535</v>
+        <v>0.1082822239604025</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>122825</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114412</v>
+        <v>113632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130717</v>
+        <v>130746</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.841908573730899</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7842381853713225</v>
+        <v>0.7788914546321341</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8960007821714081</v>
+        <v>0.8961994486968108</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>151</v>
@@ -1195,19 +1195,19 @@
         <v>162225</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152143</v>
+        <v>152709</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>170057</v>
+        <v>170476</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8880306799824811</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8328400229008134</v>
+        <v>0.8359388640237999</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9309026481963055</v>
+        <v>0.9331972457666923</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>273</v>
@@ -1216,19 +1216,19 @@
         <v>285050</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>272489</v>
+        <v>271972</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>296856</v>
+        <v>296267</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8675518405004656</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8293220434814053</v>
+        <v>0.8277504924106864</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9034832185328642</v>
+        <v>0.9016919002144149</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>2918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7754</v>
+        <v>8257</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02795757266578468</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008991325322715894</v>
+        <v>0.009040111392413437</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07429691837890608</v>
+        <v>0.07911403580183532</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1341,19 +1341,19 @@
         <v>7669</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3132</v>
+        <v>3272</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13903</v>
+        <v>14345</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0564553128321896</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02305845225609017</v>
+        <v>0.02408278375758245</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1023392825876069</v>
+        <v>0.1055926789296451</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1362,19 +1362,19 @@
         <v>10587</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5382</v>
+        <v>5463</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18108</v>
+        <v>18391</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04407362880182115</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02240546667790584</v>
+        <v>0.02274168551388072</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07537902858754734</v>
+        <v>0.07655972414304713</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>11653</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6353</v>
+        <v>6082</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20195</v>
+        <v>19869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1116523488463672</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06086979211686293</v>
+        <v>0.05827028793100263</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1934952452905295</v>
+        <v>0.1903672864673349</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1412,19 +1412,19 @@
         <v>8331</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3931</v>
+        <v>3955</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15217</v>
+        <v>15318</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06132854366279953</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02893792699803819</v>
+        <v>0.02911578743005453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1120153428958761</v>
+        <v>0.1127579867315563</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1433,19 +1433,19 @@
         <v>19985</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12510</v>
+        <v>12336</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30316</v>
+        <v>30496</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08319320560968956</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05207807763058239</v>
+        <v>0.05135091553647586</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1261993108752643</v>
+        <v>0.1269504985777361</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>89800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>80336</v>
+        <v>81759</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95685</v>
+        <v>96078</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8603900784878481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7697179372077053</v>
+        <v>0.7833456260888769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9167787063957576</v>
+        <v>0.9205445606831898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>125</v>
@@ -1483,19 +1483,19 @@
         <v>119849</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>110959</v>
+        <v>111405</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126249</v>
+        <v>126489</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8822161435050109</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8167735417021453</v>
+        <v>0.8200566549583675</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9293240500037447</v>
+        <v>0.9310960228634343</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>213</v>
@@ -1504,19 +1504,19 @@
         <v>209649</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197973</v>
+        <v>197727</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>219347</v>
+        <v>218814</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8727331655884892</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8241275215983876</v>
+        <v>0.8231064898083075</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9131064791249225</v>
+        <v>0.9108882658504435</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>4967</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9830</v>
+        <v>10781</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03619731884647217</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01223693956804565</v>
+        <v>0.01219818915240844</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07163554923548514</v>
+        <v>0.07857203440454268</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1629,19 +1629,19 @@
         <v>12026</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6296</v>
+        <v>6374</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21201</v>
+        <v>20571</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05760112665995661</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03015724098121565</v>
+        <v>0.03053131318262849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1015495934360769</v>
+        <v>0.09852865015152115</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1650,19 +1650,19 @@
         <v>16993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11134</v>
+        <v>9726</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27727</v>
+        <v>25643</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04911263271301734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0321791953614457</v>
+        <v>0.02811092388621659</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08013559034873875</v>
+        <v>0.07411298103567757</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>10096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5184</v>
+        <v>5858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15978</v>
+        <v>16736</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07357511237245065</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0377763705690894</v>
+        <v>0.04269331178500188</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.116443675253543</v>
+        <v>0.1219686623040978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1700,19 +1700,19 @@
         <v>18673</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11168</v>
+        <v>10962</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28418</v>
+        <v>28328</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08943915323790826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05349305798609097</v>
+        <v>0.05250516206244876</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1361144498806656</v>
+        <v>0.1356878087807944</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -1721,19 +1721,19 @@
         <v>28769</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18576</v>
+        <v>19690</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39217</v>
+        <v>40876</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08314766454421904</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05368826940394269</v>
+        <v>0.05690948626729687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1133455290696421</v>
+        <v>0.1181397976539841</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>122154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>114569</v>
+        <v>114651</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>128021</v>
+        <v>128003</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8902275687810772</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8349473978080384</v>
+        <v>0.8355459054581447</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9329833256750232</v>
+        <v>0.9328497448659381</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>172</v>
@@ -1771,19 +1771,19 @@
         <v>178078</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>166320</v>
+        <v>166072</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>188759</v>
+        <v>188386</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8529597201021352</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.796638492111848</v>
+        <v>0.7954519225240975</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9041183643943478</v>
+        <v>0.9023297803879521</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>310</v>
@@ -1792,19 +1792,19 @@
         <v>300234</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>287416</v>
+        <v>287132</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>312766</v>
+        <v>312383</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8677397027427636</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8306943902343367</v>
+        <v>0.829873912032304</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.903961468540974</v>
+        <v>0.9028550769783237</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>26160</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17471</v>
+        <v>18064</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37184</v>
+        <v>36674</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05206300139523862</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03477001721795499</v>
+        <v>0.03595144618903784</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07400348394523201</v>
+        <v>0.07298846737828409</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -1917,19 +1917,19 @@
         <v>36969</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26009</v>
+        <v>27254</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51700</v>
+        <v>51046</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05461966456545812</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0384275121515285</v>
+        <v>0.04026693873768514</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07638450776187809</v>
+        <v>0.07541811319227922</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -1938,19 +1938,19 @@
         <v>63129</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49151</v>
+        <v>48456</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>80785</v>
+        <v>77673</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05353035089442573</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04167810869620627</v>
+        <v>0.04108812804599703</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06850235725141078</v>
+        <v>0.06586340203735867</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>47117</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35659</v>
+        <v>35620</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62012</v>
+        <v>61216</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09377111102820263</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07096868829220887</v>
+        <v>0.07088950444861032</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1234143258421908</v>
+        <v>0.1218320866276909</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -1988,19 +1988,19 @@
         <v>48760</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36494</v>
+        <v>35756</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>62934</v>
+        <v>62581</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07204010187718481</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05391732431456404</v>
+        <v>0.05282782131600264</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09298183951982289</v>
+        <v>0.09246062615609922</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>95</v>
@@ -2009,19 +2009,19 @@
         <v>95877</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>77272</v>
+        <v>78134</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>115938</v>
+        <v>114224</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08129900059691769</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06552347274605826</v>
+        <v>0.06625419810375258</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09831023571546507</v>
+        <v>0.09685708885036873</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>429189</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>412812</v>
+        <v>413377</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>444460</v>
+        <v>443809</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8541658875765588</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8215713516615216</v>
+        <v>0.8226969055328243</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8845577860761304</v>
+        <v>0.8832611003337763</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>582</v>
@@ -2059,19 +2059,19 @@
         <v>591113</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>570940</v>
+        <v>572975</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>606831</v>
+        <v>608287</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8733402335573571</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8435352223592212</v>
+        <v>0.8465423608250856</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8965619276838305</v>
+        <v>0.8987137934524398</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1027</v>
@@ -2080,19 +2080,19 @@
         <v>1020303</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>996419</v>
+        <v>994755</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1043965</v>
+        <v>1043104</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8651706485086565</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.844918244951911</v>
+        <v>0.8435075339140933</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8852352423416595</v>
+        <v>0.8845051236135916</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>9170</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4379</v>
+        <v>4775</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16130</v>
+        <v>15865</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0657142892070737</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03137671336207151</v>
+        <v>0.03421810688068854</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.115587787096068</v>
+        <v>0.1136888438346194</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2445,19 +2445,19 @@
         <v>19428</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12153</v>
+        <v>11777</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29210</v>
+        <v>28384</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.116481475389133</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07286277697305409</v>
+        <v>0.07061193395829486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1751315400102338</v>
+        <v>0.1701840242845744</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -2466,19 +2466,19 @@
         <v>28598</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19407</v>
+        <v>19858</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40467</v>
+        <v>41400</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09335499699482033</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.063352343175074</v>
+        <v>0.06482376421839411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1321016378215987</v>
+        <v>0.1351457511169578</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>17678</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10218</v>
+        <v>10575</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27491</v>
+        <v>27907</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.126683952591059</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07321913496192474</v>
+        <v>0.07577961687031617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1970038182371454</v>
+        <v>0.199980953908725</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -2516,19 +2516,19 @@
         <v>8411</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4070</v>
+        <v>4144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15922</v>
+        <v>15836</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05042901234827678</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02440057290326823</v>
+        <v>0.02484823576280386</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09546062651037443</v>
+        <v>0.09494933938347527</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -2537,19 +2537,19 @@
         <v>26089</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17523</v>
+        <v>16404</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38233</v>
+        <v>37622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08516617941639207</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0572020012928023</v>
+        <v>0.05354861397333935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1248072307021963</v>
+        <v>0.1228147602232209</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>112698</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>101938</v>
+        <v>101919</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>122707</v>
+        <v>121757</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8076017582018673</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7304915066783891</v>
+        <v>0.7303584548099858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8793242714973425</v>
+        <v>0.8725143893747955</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>131</v>
@@ -2587,19 +2587,19 @@
         <v>138949</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127594</v>
+        <v>129270</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147760</v>
+        <v>147999</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8330895122625902</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7650103795875074</v>
+        <v>0.7750586828735813</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8859224317345558</v>
+        <v>0.8873549606590683</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>235</v>
@@ -2608,19 +2608,19 @@
         <v>251647</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>237178</v>
+        <v>236871</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>264742</v>
+        <v>265085</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8214788235887875</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7742454696980471</v>
+        <v>0.7732447662757882</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8642265498603852</v>
+        <v>0.8653454796149103</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>18558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11649</v>
+        <v>11766</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28248</v>
+        <v>28699</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1198258482230195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07521661826718047</v>
+        <v>0.07597244321067237</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1823856830374568</v>
+        <v>0.1852978879824043</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -2733,19 +2733,19 @@
         <v>25026</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16101</v>
+        <v>16381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36021</v>
+        <v>36125</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1307404620006534</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0841138184013451</v>
+        <v>0.08557409485797857</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1881779494864669</v>
+        <v>0.1887216569952744</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>39</v>
@@ -2754,19 +2754,19 @@
         <v>43585</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31701</v>
+        <v>32285</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>56985</v>
+        <v>58179</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1258590186612729</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09154139237017452</v>
+        <v>0.09322900166207013</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1645553306857502</v>
+        <v>0.1680034269879685</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>19675</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11755</v>
+        <v>11984</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30009</v>
+        <v>32053</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1270342071352896</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07589670899360917</v>
+        <v>0.07737494288157362</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1937563047124534</v>
+        <v>0.2069550859943863</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -2804,19 +2804,19 @@
         <v>24254</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15623</v>
+        <v>15770</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34520</v>
+        <v>34824</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1267075560585922</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08161870662861921</v>
+        <v>0.08238295975634075</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1803378168236515</v>
+        <v>0.1819255996193983</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -2825,19 +2825,19 @@
         <v>43929</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>31974</v>
+        <v>31815</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>59453</v>
+        <v>58313</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1268536472309536</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09233090950618013</v>
+        <v>0.09187308528078311</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1716809593501687</v>
+        <v>0.1683885684873979</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>116645</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105586</v>
+        <v>104021</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126814</v>
+        <v>127429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7531399446416909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6817361472632021</v>
+        <v>0.6716350386747838</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8187996320404685</v>
+        <v>0.8227725918867426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>133</v>
@@ -2875,19 +2875,19 @@
         <v>142139</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128334</v>
+        <v>128635</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>153905</v>
+        <v>153253</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7425519819407543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.670432403625578</v>
+        <v>0.6720038507837296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8040171192450163</v>
+        <v>0.8006092928109533</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>238</v>
@@ -2896,19 +2896,19 @@
         <v>258784</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241114</v>
+        <v>241721</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>274072</v>
+        <v>274853</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7472873341077735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6962602251786385</v>
+        <v>0.6980136713602517</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7914330203548471</v>
+        <v>0.7936892109320575</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>13881</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7607</v>
+        <v>7203</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24500</v>
+        <v>24122</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1339937632277168</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07342751904381195</v>
+        <v>0.06953074059477377</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2364957245099887</v>
+        <v>0.232840008714651</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -3021,19 +3021,19 @@
         <v>15087</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8438</v>
+        <v>8681</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24753</v>
+        <v>24646</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1069862662176329</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05983576912923985</v>
+        <v>0.06155816460594492</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1755306521195259</v>
+        <v>0.1747720806041545</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -3042,19 +3042,19 @@
         <v>28969</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19096</v>
+        <v>19193</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42757</v>
+        <v>42391</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1184242683973246</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07806405368104608</v>
+        <v>0.07846169522773852</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1747904423864217</v>
+        <v>0.1732948923034185</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>8716</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4249</v>
+        <v>4147</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16420</v>
+        <v>15841</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08413258460506182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04101651112776063</v>
+        <v>0.04002602805187347</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1584970909092918</v>
+        <v>0.1529091168944356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -3092,19 +3092,19 @@
         <v>20275</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13095</v>
+        <v>12642</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29645</v>
+        <v>30701</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1437760774082142</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09285628212609283</v>
+        <v>0.08964691016252799</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2102220313725631</v>
+        <v>0.2177116594815889</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -3113,19 +3113,19 @@
         <v>28991</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20108</v>
+        <v>20182</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41154</v>
+        <v>41300</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1185163356249541</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0822012681654849</v>
+        <v>0.08250558631455283</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1682367673279549</v>
+        <v>0.1688355613359765</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>81001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70678</v>
+        <v>71631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88573</v>
+        <v>89542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7818736521672214</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6822291402895378</v>
+        <v>0.6914326623773686</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8549682180868936</v>
+        <v>0.8643236919415088</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>97</v>
@@ -3163,19 +3163,19 @@
         <v>105657</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93785</v>
+        <v>94408</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114898</v>
+        <v>116729</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.749237656374153</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.66505371099042</v>
+        <v>0.6694672260700313</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8147713870946198</v>
+        <v>0.8277548047651887</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>168</v>
@@ -3184,19 +3184,19 @@
         <v>186657</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>170469</v>
+        <v>172715</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>199692</v>
+        <v>199763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7630593959777212</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6968826306898523</v>
+        <v>0.7060614494235355</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8163452379919972</v>
+        <v>0.8166355850779383</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>13338</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7401</v>
+        <v>7089</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22312</v>
+        <v>22948</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08253093783788761</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04579346380044933</v>
+        <v>0.04386318019682849</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.138059160948548</v>
+        <v>0.1419920240817288</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -3309,19 +3309,19 @@
         <v>15818</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9381</v>
+        <v>9496</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24432</v>
+        <v>24879</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0648957782632283</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03848435926481993</v>
+        <v>0.03895665348145529</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1002326949621178</v>
+        <v>0.1020678574381691</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -3330,19 +3330,19 @@
         <v>29156</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19757</v>
+        <v>18953</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41778</v>
+        <v>40881</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07192670420967605</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04873787334551479</v>
+        <v>0.04675526840769439</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1030640010933136</v>
+        <v>0.1008503322786959</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>19671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11716</v>
+        <v>11926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29394</v>
+        <v>30800</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1217143182807926</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07249694004253857</v>
+        <v>0.07379660860363184</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1818799394338816</v>
+        <v>0.1905781289585467</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -3380,19 +3380,19 @@
         <v>23253</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15183</v>
+        <v>14889</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32935</v>
+        <v>34248</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09539590514864653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06228846209399792</v>
+        <v>0.06108334081933604</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1351178531551886</v>
+        <v>0.1405057656419672</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -3401,19 +3401,19 @@
         <v>42923</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31661</v>
+        <v>30950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57063</v>
+        <v>57661</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1058887398166148</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07810503520314681</v>
+        <v>0.07635232187005979</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1407699654362714</v>
+        <v>0.1422460647091878</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>128604</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>117659</v>
+        <v>114839</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>137647</v>
+        <v>138047</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7957547438813197</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7280305283658419</v>
+        <v>0.7105782860636499</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8517066964509027</v>
+        <v>0.8541822434797104</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>194</v>
@@ -3451,19 +3451,19 @@
         <v>204679</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>191948</v>
+        <v>191007</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>214727</v>
+        <v>214555</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8397083165881252</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7874790355716976</v>
+        <v>0.783617949543138</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8809317589655203</v>
+        <v>0.880223996710223</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>312</v>
@@ -3472,19 +3472,19 @@
         <v>333283</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>316285</v>
+        <v>317287</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>347524</v>
+        <v>349226</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8221845559737092</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7802502554367855</v>
+        <v>0.7827231878515577</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8573156592805159</v>
+        <v>0.8615152199282923</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>54948</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42037</v>
+        <v>41838</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70878</v>
+        <v>71179</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09818555045090073</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07511403715418052</v>
+        <v>0.07475844284161984</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1266507057156983</v>
+        <v>0.1271872972847241</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -3597,19 +3597,19 @@
         <v>75359</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58692</v>
+        <v>58476</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94053</v>
+        <v>92905</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1014290950491968</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07899579208760302</v>
+        <v>0.07870475752237122</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1265898702921088</v>
+        <v>0.1250448133612651</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>117</v>
@@ -3618,19 +3618,19 @@
         <v>130308</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>110013</v>
+        <v>108483</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>155073</v>
+        <v>153213</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1000355813721766</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08445603094719471</v>
+        <v>0.08328102848819811</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1190476372658302</v>
+        <v>0.1176200586248314</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>65740</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>51134</v>
+        <v>49865</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>85584</v>
+        <v>84086</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1174687752140285</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09136945006769699</v>
+        <v>0.08910284319244671</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1529281127084042</v>
+        <v>0.1502513196411456</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>71</v>
@@ -3668,19 +3668,19 @@
         <v>76193</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>60798</v>
+        <v>59792</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>93265</v>
+        <v>92944</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1025513336376681</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08183048928573784</v>
+        <v>0.08047644927099269</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1255294600652063</v>
+        <v>0.125097689333032</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>128</v>
@@ -3689,19 +3689,19 @@
         <v>141933</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>118233</v>
+        <v>119357</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>165244</v>
+        <v>164694</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1089602662830609</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09076644818074685</v>
+        <v>0.09162875860384051</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1268558110634042</v>
+        <v>0.1264335934237067</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>438949</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>417350</v>
+        <v>417026</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>458466</v>
+        <v>459388</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7843456743350707</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7457506751723321</v>
+        <v>0.745172648614903</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8192209495011791</v>
+        <v>0.8208671864055702</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>555</v>
@@ -3739,19 +3739,19 @@
         <v>591423</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>567701</v>
+        <v>568970</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>612892</v>
+        <v>614563</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7960195713131352</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7640913815605809</v>
+        <v>0.7657997635497524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8249157616354712</v>
+        <v>0.8271648974517901</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>953</v>
@@ -3760,19 +3760,19 @@
         <v>1030372</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>995861</v>
+        <v>997398</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1059917</v>
+        <v>1057164</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7910041523447625</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7645106741635749</v>
+        <v>0.7656904827266394</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8136860448674947</v>
+        <v>0.8115725875585744</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>14015</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7999</v>
+        <v>7711</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20811</v>
+        <v>21465</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1024958088848117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05849806919188686</v>
+        <v>0.05639085708318921</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1522031654058976</v>
+        <v>0.156983473708513</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4125,19 +4125,19 @@
         <v>14709</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8144</v>
+        <v>8091</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23993</v>
+        <v>24613</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0848291447483646</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04696726852961282</v>
+        <v>0.04666467716369262</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1383757682666315</v>
+        <v>0.1419525121364311</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -4146,19 +4146,19 @@
         <v>28723</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19148</v>
+        <v>19597</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39859</v>
+        <v>41769</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09261837416693813</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06174378674929078</v>
+        <v>0.06319012627097226</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1285245790504298</v>
+        <v>0.134684166820996</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>8629</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4519</v>
+        <v>4434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15447</v>
+        <v>15249</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06310688331209753</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03304773720607392</v>
+        <v>0.03242770565144881</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1129718889190384</v>
+        <v>0.1115261287798607</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -4196,19 +4196,19 @@
         <v>16911</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10039</v>
+        <v>9871</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26600</v>
+        <v>26121</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09753076097928456</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05789849685108114</v>
+        <v>0.05692766461974318</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1534115026962458</v>
+        <v>0.1506490157820088</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -4217,19 +4217,19 @@
         <v>25540</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16955</v>
+        <v>16860</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36946</v>
+        <v>37172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08235327877009636</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05467249524681606</v>
+        <v>0.05436575729558788</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1191339090165521</v>
+        <v>0.1198602617464804</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>114090</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>106067</v>
+        <v>104939</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121806</v>
+        <v>122269</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8343973078030907</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7757212769674149</v>
+        <v>0.7674684428344682</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8908246099866062</v>
+        <v>0.8942101782182467</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>130</v>
@@ -4267,19 +4267,19 @@
         <v>141771</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>130184</v>
+        <v>130556</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>150768</v>
+        <v>152013</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8176400942723508</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7508129024208496</v>
+        <v>0.7529551862150753</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.869525473460518</v>
+        <v>0.8767082481237682</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>252</v>
@@ -4288,19 +4288,19 @@
         <v>255862</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>241265</v>
+        <v>241470</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>268629</v>
+        <v>268281</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8250283470629655</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7779590160499236</v>
+        <v>0.778620974053308</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8661964389447159</v>
+        <v>0.8650738376611922</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>12018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7029</v>
+        <v>6876</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20033</v>
+        <v>19176</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07286228384261267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04261417786763348</v>
+        <v>0.04169004661995155</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1214560992223295</v>
+        <v>0.1162615335398483</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -4413,19 +4413,19 @@
         <v>10642</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4686</v>
+        <v>5173</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20804</v>
+        <v>20704</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04855941351675806</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02138013141496634</v>
+        <v>0.02360214967095779</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09492477520410542</v>
+        <v>0.09446810765630968</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -4434,19 +4434,19 @@
         <v>22660</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13956</v>
+        <v>14418</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34767</v>
+        <v>34818</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05899548262170776</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03633374225976198</v>
+        <v>0.03753587104879462</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09051456947395775</v>
+        <v>0.09064802696202355</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>14307</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8552</v>
+        <v>9146</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22071</v>
+        <v>22756</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08674177739031777</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05185130368188885</v>
+        <v>0.05544954615007439</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1338097914994242</v>
+        <v>0.1379661209776959</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -4484,19 +4484,19 @@
         <v>19831</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12230</v>
+        <v>11648</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30762</v>
+        <v>30413</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09048370976950308</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05580106985440094</v>
+        <v>0.05314754672854773</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1403590691967355</v>
+        <v>0.1387685061925235</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>32</v>
@@ -4505,19 +4505,19 @@
         <v>34138</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24124</v>
+        <v>24639</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48135</v>
+        <v>47133</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0888768598636431</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06280602844165059</v>
+        <v>0.06414798138019144</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1253173191649003</v>
+        <v>0.1227080835926551</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>138616</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129046</v>
+        <v>128159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146394</v>
+        <v>146326</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8403959387670695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7823769648324197</v>
+        <v>0.7769964039927965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8875548617909883</v>
+        <v>0.8871422841334786</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>159</v>
@@ -4555,19 +4555,19 @@
         <v>188690</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175693</v>
+        <v>175674</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>198619</v>
+        <v>198692</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8609568767137389</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8016531336711026</v>
+        <v>0.8015696482542615</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9062597746195186</v>
+        <v>0.9065938585471557</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>304</v>
@@ -4576,19 +4576,19 @@
         <v>327306</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>309849</v>
+        <v>311812</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>340647</v>
+        <v>340152</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8521276575146491</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8066796605378543</v>
+        <v>0.8117905227836568</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.886860139572481</v>
+        <v>0.8855713869320442</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>4335</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1580</v>
+        <v>1629</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9380</v>
+        <v>10048</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03768528821724915</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01373485462380658</v>
+        <v>0.01415918174048142</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08154060868789341</v>
+        <v>0.08734657166528456</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -4701,19 +4701,19 @@
         <v>10256</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4682</v>
+        <v>4648</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18993</v>
+        <v>18197</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07192350615487042</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0328307265628246</v>
+        <v>0.03259271722841794</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1331954773149739</v>
+        <v>0.1276116468717815</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -4722,19 +4722,19 @@
         <v>14591</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8442</v>
+        <v>8404</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24866</v>
+        <v>24596</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05663577240132798</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03276910808303367</v>
+        <v>0.03261932814944424</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09651743621913531</v>
+        <v>0.09546966527612391</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>10962</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6069</v>
+        <v>6332</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18098</v>
+        <v>17932</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09528893666128287</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05275571213598828</v>
+        <v>0.05504397591377146</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1573236934310884</v>
+        <v>0.1558791942034435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4772,19 +4772,19 @@
         <v>11187</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5196</v>
+        <v>5567</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22244</v>
+        <v>21169</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07845036604578141</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03643827150003705</v>
+        <v>0.03903703794923014</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1559918967545296</v>
+        <v>0.1484574379709966</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -4793,19 +4793,19 @@
         <v>22148</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14534</v>
+        <v>14145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34432</v>
+        <v>33224</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08596896952067636</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05641399121103409</v>
+        <v>0.05490366921052188</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1336489186327619</v>
+        <v>0.1289595790735215</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>99738</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91832</v>
+        <v>91011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105543</v>
+        <v>105426</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8670257751214679</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7982946313200673</v>
+        <v>0.7911564198573258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9174895324596777</v>
+        <v>0.916467256150116</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -4843,19 +4843,19 @@
         <v>121153</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109441</v>
+        <v>110659</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129620</v>
+        <v>129856</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8496261277993482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7674866938759392</v>
+        <v>0.7760347467355465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9090033567235231</v>
+        <v>0.9106538102440533</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>199</v>
@@ -4864,19 +4864,19 @@
         <v>220892</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>206803</v>
+        <v>206918</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>231412</v>
+        <v>231550</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8573952580779957</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8027093310922584</v>
+        <v>0.8031555835502274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8982286757457059</v>
+        <v>0.8987662325544258</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>4983</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1671</v>
+        <v>1651</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11222</v>
+        <v>11944</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02853819901519825</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009567580271024176</v>
+        <v>0.009452998563764917</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06426503903823629</v>
+        <v>0.0684010742278871</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4989,19 +4989,19 @@
         <v>13884</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7655</v>
+        <v>6639</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24761</v>
+        <v>25199</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05718848154350648</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03153112268592545</v>
+        <v>0.02734734986315661</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1019891718109009</v>
+        <v>0.1037949719430476</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -5010,19 +5010,19 @@
         <v>18868</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10716</v>
+        <v>11438</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30519</v>
+        <v>30591</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04520268998176735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02567205399799288</v>
+        <v>0.02740244084080186</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07311720466101887</v>
+        <v>0.07328950308013128</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>13881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8188</v>
+        <v>8276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21678</v>
+        <v>21562</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07949466573744307</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04688864535843969</v>
+        <v>0.04739297470096189</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1241424904483813</v>
+        <v>0.1234819667977606</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -5060,19 +5060,19 @@
         <v>23211</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14300</v>
+        <v>13298</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36582</v>
+        <v>35272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09560670095190535</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05890198054265834</v>
+        <v>0.05477191640127429</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1506791148631447</v>
+        <v>0.1452838278552527</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -5081,19 +5081,19 @@
         <v>37093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26109</v>
+        <v>26067</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52957</v>
+        <v>53716</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08886626146321494</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06255118607985076</v>
+        <v>0.0624508312493541</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1268727279111959</v>
+        <v>0.128691352680718</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>155754</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>146989</v>
+        <v>147127</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>162609</v>
+        <v>162848</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8919671352473587</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8417722098404165</v>
+        <v>0.8425648694589749</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.931226123738901</v>
+        <v>0.932597153294375</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>172</v>
@@ -5131,19 +5131,19 @@
         <v>205685</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>190337</v>
+        <v>191427</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>216943</v>
+        <v>217293</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8472048175045882</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7839867770732817</v>
+        <v>0.7884769488831612</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.89357416791144</v>
+        <v>0.8950152838721237</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>341</v>
@@ -5152,19 +5152,19 @@
         <v>361440</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>344944</v>
+        <v>343894</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>374131</v>
+        <v>376591</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8659310485550177</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8264115639620007</v>
+        <v>0.823895035412377</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8963364675936065</v>
+        <v>0.9022314624693101</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>35351</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25988</v>
+        <v>25834</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48810</v>
+        <v>46794</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05978244762145465</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04394933254952856</v>
+        <v>0.04368772696513878</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08254343542206581</v>
+        <v>0.07913318305577362</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -5277,19 +5277,19 @@
         <v>49491</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35911</v>
+        <v>35388</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65574</v>
+        <v>68128</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06361915097534006</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04616273619995185</v>
+        <v>0.04549032383016458</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08429330257782786</v>
+        <v>0.087575338563537</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>77</v>
@@ -5298,19 +5298,19 @@
         <v>84842</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>66817</v>
+        <v>67230</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>103583</v>
+        <v>104438</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06196223280471149</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04879771246137036</v>
+        <v>0.04909963031149024</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07564911290172951</v>
+        <v>0.07627364565721396</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>47779</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35316</v>
+        <v>37206</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>60905</v>
+        <v>62121</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08079930942175764</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05972255753210517</v>
+        <v>0.06291920251325643</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1029962195880361</v>
+        <v>0.1050531484238847</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -5348,19 +5348,19 @@
         <v>71140</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54523</v>
+        <v>54333</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>91207</v>
+        <v>90620</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09144748881074401</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07008732217841281</v>
+        <v>0.06984284284614879</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1172435756135213</v>
+        <v>0.1164880009710368</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>109</v>
@@ -5369,19 +5369,19 @@
         <v>118919</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>97855</v>
+        <v>98293</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>142796</v>
+        <v>141303</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08684896755789367</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07146589124508065</v>
+        <v>0.07178532181029851</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1042867693122217</v>
+        <v>0.1031970178194846</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>508198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>492180</v>
+        <v>491892</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>524267</v>
+        <v>523857</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8594182429567877</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8323304061436091</v>
+        <v>0.8318426324521823</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8865922866703817</v>
+        <v>0.885898730234561</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>563</v>
@@ -5419,19 +5419,19 @@
         <v>657300</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>634134</v>
+        <v>633775</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>680270</v>
+        <v>678758</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.844933360213916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8151547737395444</v>
+        <v>0.8146930604463319</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8744601417833258</v>
+        <v>0.8725167308763666</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1096</v>
@@ -5440,19 +5440,19 @@
         <v>1165498</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1138266</v>
+        <v>1138489</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1193760</v>
+        <v>1192394</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8511887996373948</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8313005428335402</v>
+        <v>0.8314638566758162</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8718294018415295</v>
+        <v>0.8708314359064803</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>17422</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12342</v>
+        <v>11890</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24696</v>
+        <v>23989</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1066776337845902</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07557446059470144</v>
+        <v>0.07280613123434061</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1512160960875744</v>
+        <v>0.1468868050200877</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -5805,19 +5805,19 @@
         <v>22178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16511</v>
+        <v>16549</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28647</v>
+        <v>28449</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1160956663511629</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08643443238712914</v>
+        <v>0.0866330879112521</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1499638930037207</v>
+        <v>0.1489261149528233</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -5826,19 +5826,19 @@
         <v>39600</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32208</v>
+        <v>31328</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49376</v>
+        <v>48388</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1117549636999254</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09089387315281107</v>
+        <v>0.08841286444036406</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1393448591211471</v>
+        <v>0.1365566601167911</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>22831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16232</v>
+        <v>16569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31091</v>
+        <v>30999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1397993316732396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09939425595238573</v>
+        <v>0.1014543740050545</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1903774608260023</v>
+        <v>0.1898143884055987</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -5876,19 +5876,19 @@
         <v>29977</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23825</v>
+        <v>23702</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37703</v>
+        <v>36941</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1569229346712989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1247214867331238</v>
+        <v>0.1240743554956122</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1973700155892936</v>
+        <v>0.1933768745948385</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -5897,19 +5897,19 @@
         <v>52808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43000</v>
+        <v>43636</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63226</v>
+        <v>64002</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1490307907009938</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1213512377008578</v>
+        <v>0.123145674563989</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1784307344012204</v>
+        <v>0.1806216567620884</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>123061</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>113348</v>
+        <v>113448</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131845</v>
+        <v>131331</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7535230345421701</v>
+        <v>0.7535230345421702</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6940493887085396</v>
+        <v>0.694662541285316</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8073126395437642</v>
+        <v>0.804161780840257</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>319</v>
@@ -5947,19 +5947,19 @@
         <v>138875</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>130371</v>
+        <v>131296</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147607</v>
+        <v>147187</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.726981398977538</v>
+        <v>0.7269813989775382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6824648969144469</v>
+        <v>0.6873092441792062</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.772692961867969</v>
+        <v>0.7704932341026893</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>504</v>
@@ -5968,19 +5968,19 @@
         <v>261935</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>249351</v>
+        <v>250664</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>272673</v>
+        <v>273598</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7392142455990808</v>
+        <v>0.7392142455990809</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7037000281659929</v>
+        <v>0.7074040382327841</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7695160361408356</v>
+        <v>0.7721286232358973</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>12950</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8454</v>
+        <v>8818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18397</v>
+        <v>18522</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07266906459202711</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04744170446581099</v>
+        <v>0.04948064200887368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1032364040647118</v>
+        <v>0.1039395418989096</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -6093,19 +6093,19 @@
         <v>22180</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16548</v>
+        <v>16337</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29758</v>
+        <v>29891</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09163959292642267</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06836734784043207</v>
+        <v>0.06749844986208216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1229454266620704</v>
+        <v>0.123496911978709</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>66</v>
@@ -6114,19 +6114,19 @@
         <v>35130</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27082</v>
+        <v>26854</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44360</v>
+        <v>43973</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08359516318814215</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06444283806869561</v>
+        <v>0.0639010140062478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1055568430399575</v>
+        <v>0.1046381442267631</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>17136</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11129</v>
+        <v>11361</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24440</v>
+        <v>25313</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09615831667108611</v>
+        <v>0.09615831667108612</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06245045690939192</v>
+        <v>0.0637531427383031</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1371478405562994</v>
+        <v>0.1420473261368692</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>65</v>
@@ -6164,19 +6164,19 @@
         <v>34721</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27473</v>
+        <v>27662</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>43072</v>
+        <v>44106</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1434500823012533</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1135064242499822</v>
+        <v>0.1142867775084394</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1779553671625788</v>
+        <v>0.1822256762890957</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>90</v>
@@ -6185,19 +6185,19 @@
         <v>51856</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>41963</v>
+        <v>42203</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>62211</v>
+        <v>62244</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.12339606592885</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09985366935692511</v>
+        <v>0.1004261162259225</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1480358087456941</v>
+        <v>0.1481145097616912</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>148118</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139129</v>
+        <v>139510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>155204</v>
+        <v>155648</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8311726187368869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7807308232889245</v>
+        <v>0.7828685520200819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.870933309026434</v>
+        <v>0.8734275869865983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>342</v>
@@ -6235,19 +6235,19 @@
         <v>185139</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175070</v>
+        <v>174025</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>194134</v>
+        <v>194462</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.764910324772324</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7233085326149428</v>
+        <v>0.7189912842762004</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8020745797818702</v>
+        <v>0.8034306448107957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>547</v>
@@ -6256,19 +6256,19 @@
         <v>333256</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>320144</v>
+        <v>320147</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>346365</v>
+        <v>345544</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7930087708830077</v>
+        <v>0.793008770883008</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7618074535736908</v>
+        <v>0.761813960792658</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.824202318882444</v>
+        <v>0.8222487337723635</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>7216</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3507</v>
+        <v>3299</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12917</v>
+        <v>13266</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04542552551421516</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0220744116080306</v>
+        <v>0.02076653021461589</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08131377373787521</v>
+        <v>0.08351314047157664</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -6381,19 +6381,19 @@
         <v>12956</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8121</v>
+        <v>8259</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19987</v>
+        <v>20528</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.07407474666678246</v>
+        <v>0.07407474666678247</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04642989197087854</v>
+        <v>0.04721999192577756</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1142683848747218</v>
+        <v>0.1173643792295829</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -6402,19 +6402,19 @@
         <v>20172</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13318</v>
+        <v>13062</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29243</v>
+        <v>29497</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06043914081263317</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03990312533351607</v>
+        <v>0.03913546300644314</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08761433495874725</v>
+        <v>0.08837747446095599</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>8747</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4557</v>
+        <v>4682</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14751</v>
+        <v>14971</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05506351912650274</v>
+        <v>0.05506351912650275</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02868342540547594</v>
+        <v>0.02947201328977546</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09285516315359293</v>
+        <v>0.09424136830728194</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -6452,19 +6452,19 @@
         <v>14153</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9231</v>
+        <v>9481</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20211</v>
+        <v>20377</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08091462849535312</v>
+        <v>0.08091462849535315</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05277458539283807</v>
+        <v>0.0542040185222516</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1155508115668987</v>
+        <v>0.1165032701717318</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -6473,19 +6473,19 @@
         <v>22900</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16273</v>
+        <v>16123</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30759</v>
+        <v>31257</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06861078482822566</v>
+        <v>0.06861078482822565</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04875486543397537</v>
+        <v>0.04830665595760474</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09215829201420886</v>
+        <v>0.09365058369874585</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>142892</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>135413</v>
+        <v>135156</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>148924</v>
+        <v>148834</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.899510955359282</v>
+        <v>0.8995109553592823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8524344522398805</v>
+        <v>0.8508145321387006</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9374818006445939</v>
+        <v>0.9369193052450008</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>246</v>
@@ -6523,19 +6523,19 @@
         <v>147800</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>139772</v>
+        <v>139515</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>154419</v>
+        <v>154826</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8450106248378643</v>
+        <v>0.8450106248378644</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7991109925800628</v>
+        <v>0.7976435236858221</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.882851281430632</v>
+        <v>0.8851825987241664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>418</v>
@@ -6544,19 +6544,19 @@
         <v>290692</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>279282</v>
+        <v>279368</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>300332</v>
+        <v>300109</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8709500743591413</v>
+        <v>0.870950074359141</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8367639431525382</v>
+        <v>0.8370223015020344</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8998344563809082</v>
+        <v>0.899164501213456</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>13415</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8688</v>
+        <v>8242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19371</v>
+        <v>19470</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06279690868314866</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04067028618198735</v>
+        <v>0.03857993438353937</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09067928378830546</v>
+        <v>0.09114079514729719</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -6669,19 +6669,19 @@
         <v>22847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15872</v>
+        <v>15831</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31297</v>
+        <v>31055</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07735247166678137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05373836418953182</v>
+        <v>0.05359926594028775</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1059589589782561</v>
+        <v>0.1051415698030231</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -6690,19 +6690,19 @@
         <v>36262</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27967</v>
+        <v>27440</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47099</v>
+        <v>47537</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.071243447482865</v>
+        <v>0.07124344748286501</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05494502362441694</v>
+        <v>0.05391062979632869</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09253383022256791</v>
+        <v>0.09339392717760779</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>18520</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12884</v>
+        <v>12560</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25823</v>
+        <v>25650</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08669276695954181</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06031148430398318</v>
+        <v>0.0587949002148192</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1208822152707815</v>
+        <v>0.120071810577393</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -6740,19 +6740,19 @@
         <v>35963</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28164</v>
+        <v>27847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45944</v>
+        <v>46181</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1217565543686959</v>
+        <v>0.1217565543686958</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09535380598001399</v>
+        <v>0.09428127281787266</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.155549933846707</v>
+        <v>0.1563501022575949</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>90</v>
@@ -6761,19 +6761,19 @@
         <v>54482</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42969</v>
+        <v>43561</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65131</v>
+        <v>66166</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1070401517463382</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08441987305161366</v>
+        <v>0.08558258898015342</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1279616374540525</v>
+        <v>0.1299943917859293</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>181690</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>173036</v>
+        <v>172752</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>189310</v>
+        <v>189478</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8505103243573096</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8099995880486456</v>
+        <v>0.808669590783866</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8861802101445538</v>
+        <v>0.886963850765377</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>427</v>
@@ -6811,19 +6811,19 @@
         <v>236556</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>225306</v>
+        <v>224115</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>246231</v>
+        <v>247092</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8008909739645228</v>
+        <v>0.8008909739645227</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.762804307325179</v>
+        <v>0.7587701295914038</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8336460457393289</v>
+        <v>0.8365605515063493</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>701</v>
@@ -6832,19 +6832,19 @@
         <v>418246</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>405457</v>
+        <v>404973</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>431606</v>
+        <v>432560</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8217164007707967</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7965904940057635</v>
+        <v>0.7956379427526419</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8479632857690418</v>
+        <v>0.8498378298899257</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>51003</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39954</v>
+        <v>41227</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62880</v>
+        <v>62979</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07143287543730606</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05595848867626398</v>
+        <v>0.05774157766846725</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08806705080844758</v>
+        <v>0.08820636211605383</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>150</v>
@@ -6957,19 +6957,19 @@
         <v>80162</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>68322</v>
+        <v>67692</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>93411</v>
+        <v>94935</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0887388651221927</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07563197938944981</v>
+        <v>0.07493490953921172</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1034063187158106</v>
+        <v>0.1050934078167707</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>236</v>
@@ -6978,19 +6978,19 @@
         <v>131165</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>114133</v>
+        <v>114900</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150805</v>
+        <v>148719</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08109889004270597</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0705683459310676</v>
+        <v>0.071042572660166</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09324225173800528</v>
+        <v>0.09195253663397011</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>67234</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55410</v>
+        <v>55852</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>80186</v>
+        <v>81598</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09416530857782392</v>
+        <v>0.0941653085778239</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07760574000743936</v>
+        <v>0.07822354128453189</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1123050798491305</v>
+        <v>0.1142825674323233</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>223</v>
@@ -7028,19 +7028,19 @@
         <v>114813</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>101525</v>
+        <v>99471</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>131126</v>
+        <v>129942</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.127097681037664</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1123884528721581</v>
+        <v>0.1101147398036086</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1451563112262185</v>
+        <v>0.1438454691336057</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>325</v>
@@ -7049,19 +7049,19 @@
         <v>182047</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>162585</v>
+        <v>163340</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>201326</v>
+        <v>204739</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1125592172177486</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1005262816172144</v>
+        <v>0.1009930612359504</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1244796610897421</v>
+        <v>0.126589936889138</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>595762</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>579618</v>
+        <v>578104</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>611622</v>
+        <v>610206</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.83440181598487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8117913766691284</v>
+        <v>0.8096700205094733</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8566148004141213</v>
+        <v>0.8546316613335982</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1334</v>
@@ -7099,19 +7099,19 @@
         <v>708369</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>688423</v>
+        <v>690096</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>725671</v>
+        <v>727582</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7841634538401433</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7620836683261977</v>
+        <v>0.7639353473856345</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8033172175383789</v>
+        <v>0.8054331905517013</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2170</v>
@@ -7120,19 +7120,19 @@
         <v>1304131</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1280820</v>
+        <v>1278066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1328715</v>
+        <v>1329190</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8063418927395453</v>
+        <v>0.8063418927395454</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7919292788230953</v>
+        <v>0.7902262024933322</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8215425201086569</v>
+        <v>0.8218361023215041</v>
       </c>
     </row>
     <row r="23">
